--- a/Income/MKL_inc.xlsx
+++ b/Income/MKL_inc.xlsx
@@ -1648,10 +1648,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>0.5682</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.4364</v>
@@ -1777,10 +1775,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>0.3114</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.1308</v>
@@ -1906,10 +1902,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.2849</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.1027</v>
@@ -2035,10 +2029,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.2225</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.079</v>
@@ -2164,10 +2156,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1537</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.168</v>
@@ -3182,10 +3172,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>0.3114</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.1308</v>
@@ -3311,10 +3299,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>0.162</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.1784</v>
